--- a/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Achievement.xlsx
+++ b/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Achievement.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\core-library-management\Assets\Samples\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDC7FE-6E2C-4F12-B153-1746DF310C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C085FC-126E-4662-9850-43254EF9FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3885" windowWidth="28800" windowHeight="15345" xr2:uid="{D6B55083-CB5F-4665-B199-B6EA88FD46F8}"/>
+    <workbookView xWindow="3375" yWindow="3885" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{D6B55083-CB5F-4665-B199-B6EA88FD46F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,79 +37,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>goal_type</t>
+  </si>
+  <si>
+    <t>goal_sub_type</t>
+  </si>
+  <si>
+    <t>goal_grade</t>
+  </si>
+  <si>
+    <t>goal_id</t>
+  </si>
+  <si>
+    <t>goal_value</t>
+  </si>
+  <si>
+    <t>goal_count_method</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>GetGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
+    <t>MaxStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>achievement_id</t>
   </si>
   <si>
-    <t>goal_type</t>
-  </si>
-  <si>
-    <t>goal_sub_type</t>
-  </si>
-  <si>
-    <t>goal_grade</t>
-  </si>
-  <si>
-    <t>goal_id</t>
-  </si>
-  <si>
-    <t>goal_value</t>
-  </si>
-  <si>
-    <t>goal_count_method</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>goal_count</t>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reward_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
+    <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -324,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,9 +467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D8971-5126-41F3-8B73-A7EC914B265E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -488,47 +481,47 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,24 +533,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -569,13 +562,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -588,11 +581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F4E2C6-B627-4FE3-A7B8-F0DFC6234725}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -600,27 +593,27 @@
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -657,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -697,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -717,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -737,10 +730,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -757,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,10 +770,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -797,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
